--- a/statistics/HistoricalDistanceData/historical_distance/Q1481974-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q1481974-en.xlsx
@@ -31,12 +31,12 @@
     <t>uri</t>
   </si>
   <si>
+    <t>World of Boats at Eyemouth Maritime Centre (Museum) ~ A World Class Boat and Dinghy Collection from all over the World. Visit Us at the Eyemouth Maritime Centre (Museum)</t>
+  </si>
+  <si>
     <t>the Silver Darlings</t>
   </si>
   <si>
-    <t>World of Boats at Eyemouth Maritime Centre (Museum) ~ A World Class Boat and Dinghy Collection from all over the World. Visit Us at the Eyemouth Maritime Centre (Museum)</t>
-  </si>
-  <si>
     <t>Eyemouth Museum</t>
   </si>
   <si>
@@ -46,10 +46,10 @@
     <t>unknown</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20101002230055/http://www.worldofboats.org/localarea/eyemouth-disaster</t>
+  </si>
+  <si>
     <t>http://sites.scran.ac.uk/secf_final/danger/links/link3.php</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20101002230055/http://www.worldofboats.org/localarea/eyemouth-disaster</t>
   </si>
   <si>
     <t>http://eyemouthmuseum.co.uk/product/product-4/</t>
